--- a/chromedriver/movies.xlsx
+++ b/chromedriver/movies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="236">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -157,12 +157,15 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/4825582/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1312838/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Один обычный день (мини-сериал)</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/4309041/sr/1/</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/5354707/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1312838/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Один из нас лжёт (сериал)</t>
   </si>
   <si>
@@ -217,6 +217,12 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/673340/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">Один на один</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1325039/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Одинокий мужчина</t>
   </si>
   <si>
@@ -226,10 +232,13 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/430593/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Один король — одна Франция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1046450/sr/1/</t>
+    <t xml:space="preserve">Один пропущенный звонок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/49221/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">Одна</t>
@@ -238,6 +247,21 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/4497446/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">Один против всех</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/9461/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не одна дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5368248/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Одинокий рейнджер</t>
   </si>
   <si>
@@ -247,33 +271,6 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/461981/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Один пропущенный звонок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/49221/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Один против всех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/9461/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Один литр слез (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 – 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1197712/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Одиночка (ТВ)</t>
   </si>
   <si>
@@ -292,25 +289,19 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/13457/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Не одна дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5368248/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/220671/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Один и два</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/888/sr/1/</t>
+    <t xml:space="preserve">Один день конца света</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1067330/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">Один день лета</t>
@@ -319,21 +310,24 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/1161905/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Один день конца света</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1067330/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">1960</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/2580/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">Одна дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5253205/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиннадцать молчаливых мужчин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1338453/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Один король, одна королева (сериал)</t>
   </si>
   <si>
@@ -343,12 +337,6 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/1046566/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Одна дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5253205/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Изгой-один: Звёздные войны. Истории</t>
   </si>
   <si>
@@ -358,75 +346,102 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/840152/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">Один рейнджер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5149184/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/679875/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиноким предоставляется общежитие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/42727/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одну тебя люблю (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/477458/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один хороший день</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5047465/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цель номер один</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/575332/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиночества (мини-сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4364134/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бар «Один звонок» (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 – 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5333424/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один из отвергнутых: Изгой (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4298848/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двадцать пять, двадцать один (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4404651/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один на один (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5330847/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Одинокая женщина желает познакомиться</t>
   </si>
   <si>
-    <t xml:space="preserve">1986</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/42725/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Одиннадцать молчаливых мужчин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1338453/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Один</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/679875/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одиноким предоставляется общежитие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/42727/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одну тебя люблю (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/477458/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цель номер один</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/575332/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одиночества (мини-сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4364134/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бар «Один звонок» (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5333424/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двадцать пять, двадцать один (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4404651/sr/1/</t>
+    <t xml:space="preserve">Один из нас (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4644325/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">Двадцать одно</t>
   </si>
   <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/195847/sr/1/</t>
   </si>
   <si>
@@ -442,310 +457,277 @@
     <t xml:space="preserve">https://www.kinopoisk.ru/film/1178063/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">Одиноки вместе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4477095/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ни одной больше (сериал)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/5632573/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">Одинокий волк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1246175/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Еще по одной</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/1263705/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Одиноки вместе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4477095/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Один день в шкуре льва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5024137/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одинокий волк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1246175/sr/1/</t>
+    <t xml:space="preserve">Один процент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4674356/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дорога в один конец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 – ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5380132/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">Поднятие уровня в одиночку (сериал)</t>
   </si>
   <si>
-    <t xml:space="preserve">2024 – ...</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/5230828/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Дорога в один конец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5380132/sr/1/</t>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4936699/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ещё один удар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 – ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5267756/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911 служба спасения (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1101328/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Друзья: Ещё один эпизод перед последним – Десять лет Друзей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/982493/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Станция одиннадцать (мини-сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1282706/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиночка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/58627/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер один</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1314719/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пространство: Один корабль (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4783995/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">Один в темноте</t>
   </si>
   <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/47346/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">911 служба спасения (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 – ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1101328/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4936699/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ещё один удар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5267756/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Друзья: Ещё один эпизод перед последним – Десять лет Друзей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/982493/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Станция одиннадцать (мини-сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1282706/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пространство: Один корабль (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4783995/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одиночка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/58627/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Один день детства</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5034544/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер один</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1314719/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Один день (ТВ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/426351/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одни на каникулах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4890389/sr/1/</t>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/862132/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">Парфюмер: История одного убийцы</t>
   </si>
   <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/78378/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/862132/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Одинокий волк (сериал)</t>
   </si>
   <si>
+    <t xml:space="preserve">1989</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/4796098/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Одиннадцать дней, одиннадцать ночей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/95865/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Одинокий голубь (мини-сериал)</t>
   </si>
   <si>
-    <t xml:space="preserve">1989</t>
+    <t xml:space="preserve">2021 – ...</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/276113/sr/1/</t>
   </si>
   <si>
+    <t xml:space="preserve">Один за всех (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5965516/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убийства в одном здании (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4295380/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одним днем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5029445/sr/1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Одинокие сердца</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/102138/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Убийства в одном здании (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021 – ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4295380/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Плюс один</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/1269608/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Одинокий волк МакКуэйд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/22637/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одним днем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5029445/sr/1/</t>
+    <t xml:space="preserve">На автомате (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5388902/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911: Одинокая звезда (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1272633/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиночества. Нет (мини-сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5244199/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Еще один год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/462848/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиночки (мини-сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/5214151/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">91 день (сериал)</t>
   </si>
   <si>
+    <t xml:space="preserve">1985</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/1002694/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">На автомате (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/5388902/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/395697/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Еще один год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/462848/sr/1/</t>
+    <t xml:space="preserve">Одна война</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/432385/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиночное плавание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/42723/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один плюс одна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/586752/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/535341/sr/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#живой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/1282031/sr/1/</t>
   </si>
   <si>
     <t xml:space="preserve">Самый одинокий кит</t>
   </si>
   <si>
+    <t xml:space="preserve">1962</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/1046636/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">911: Одинокая звезда (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1272633/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одна война</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/432385/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одиночное плавание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/42723/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Жизнь за один день</t>
   </si>
   <si>
+    <t xml:space="preserve">2014 – ...</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/542418/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Один плюс одна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/586752/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#живой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/1282031/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Одиночество бегуна на длинную дистанцию</t>
   </si>
   <si>
-    <t xml:space="preserve">1962</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/183130/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">1+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/535341/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/818844/sr/1/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Фарго (сериал)</t>
   </si>
   <si>
-    <t xml:space="preserve">2014 – ...</t>
+    <t xml:space="preserve">2007 – 2013</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kinopoisk.ru/film/767379/sr/1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Папины дочки (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007 – 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/394047/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адвокат за один доллар (сериал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/4958110/sr/1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одной левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kinopoisk.ru/film/797709/sr/1/</t>
+    <t xml:space="preserve">Одна женщина (сериал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kinopoisk.ru/film/4489225/sr/1/</t>
   </si>
 </sst>
 </file>
@@ -846,10 +828,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1037,32 +1019,32 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>50</v>
@@ -1095,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>58</v>
@@ -1128,18 +1110,18 @@
         <v>65</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>69</v>
@@ -1150,18 +1132,18 @@
         <v>70</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>74</v>
@@ -1183,59 +1165,59 @@
         <v>78</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>92</v>
@@ -1249,447 +1231,447 @@
         <v>94</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>185</v>
@@ -1711,117 +1693,117 @@
         <v>189</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>212</v>
@@ -1832,7 +1814,7 @@
         <v>213</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>214</v>
@@ -1843,7 +1825,7 @@
         <v>215</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>216</v>
@@ -1854,40 +1836,40 @@
         <v>217</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>225</v>
@@ -1909,7 +1891,7 @@
         <v>229</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>230</v>
@@ -1917,57 +1899,24 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
